--- a/BaiTapLon/Resource/Template/Nhap_Hang_Template.xlsx
+++ b/BaiTapLon/Resource/Template/Nhap_Hang_Template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[LEARN]\SEMESTER 5\SWP391\FULL DO AN\Do_An\BaiTapLon\Resource\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B3BC4D-D94F-4C3B-9945-EC120A56FABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1B3BE6-29DD-4966-BBF5-84AD6A855FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3800D90A-028C-4492-BE86-94BB61181F17}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{3800D90A-028C-4492-BE86-94BB61181F17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,32 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Mã Đơn Hàng:</t>
   </si>
   <si>
-    <t>Số 20, Đường Trần Nhân Tông, P. Đông Triều, Quảng Ninh</t>
-  </si>
-  <si>
     <t>MD0110</t>
   </si>
   <si>
-    <t>thuongdt1002@gmail.com</t>
-  </si>
-  <si>
     <t>Email:</t>
   </si>
   <si>
     <t>Số điện thoại:</t>
   </si>
   <si>
-    <t>Hoàng Văn Thường</t>
-  </si>
-  <si>
-    <t>Hưng Đạo, Đông Triều, Quảng Ninh</t>
-  </si>
-  <si>
     <t>Đia Chỉ:</t>
   </si>
   <si>
@@ -127,13 +119,28 @@
     <t>Thông tin:</t>
   </si>
   <si>
-    <t>Nhà Cung cấp:</t>
-  </si>
-  <si>
     <t>Ngày Nhập:</t>
   </si>
   <si>
-    <t>Nhập Kho:</t>
+    <t>Cầu Rau Răm, đường Nguyễn Văn Cừ nối dài, An Bình, Ninh Kiều, Cần Thơ</t>
+  </si>
+  <si>
+    <t>Khách Hàng:</t>
+  </si>
+  <si>
+    <t>Đặng Minh Tuấn</t>
+  </si>
+  <si>
+    <t>tuandm1905@gmail.com</t>
+  </si>
+  <si>
+    <t>Hẻm 54 Trần Viết Châu, Ninh Kiều, Cần Thơ</t>
+  </si>
+  <si>
+    <t>Giao Hàng:</t>
+  </si>
+  <si>
+    <t>Ghi Chú:</t>
   </si>
 </sst>
 </file>
@@ -148,7 +155,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -156,7 +163,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -165,7 +172,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -173,7 +180,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -181,7 +188,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -190,14 +197,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -205,7 +212,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -213,7 +220,7 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -221,7 +228,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -386,10 +393,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -398,16 +404,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -424,6 +430,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -445,83 +479,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -547,13 +559,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>524904</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1650606</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>65723</xdr:rowOff>
     </xdr:to>
@@ -578,14 +590,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="807720" y="0"/>
-          <a:ext cx="2453640" cy="766763"/>
+          <a:off x="1325004" y="0"/>
+          <a:ext cx="1125702" cy="827723"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -896,589 +907,565 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF7D3B1-B937-4116-938C-E92CE05826BD}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="31.09765625" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" customWidth="1"/>
-    <col min="4" max="4" width="19.09765625" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="28.69921875" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="27" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="37"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="38"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="35"/>
+      <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="E7" s="11">
+        <v>44928</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="35"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="44">
+        <v>946144169</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="44"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="48">
+        <v>90102023</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="12">
-        <v>44499</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="37">
-        <v>989292111</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="F15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="42">
-        <v>900020011</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="47"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="50"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="48" t="s">
-        <v>13</v>
+      <c r="F18" s="24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="48"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>1</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>2</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>3</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>4</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>5</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>6</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>7</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>8</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>9</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>10</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>11</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>12</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>13</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>14</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>15</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>16</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>17</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>18</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>19</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>20</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>21</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>22</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>23</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>24</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
         <v>25</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="B48" s="17"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>26</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>27</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>28</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>1</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>2</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>3</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>4</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>5</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>6</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>7</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>8</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>9</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>10</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>11</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>12</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>13</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>14</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>15</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>16</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <v>17</v>
-      </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <v>18</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <v>19</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>20</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>21</v>
-      </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>22</v>
-      </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <v>23</v>
-      </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <v>24</v>
-      </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <v>25</v>
-      </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
-        <v>26</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
-        <v>27</v>
-      </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
-        <v>28</v>
-      </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D53" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" s="50">
+      <c r="E53" s="27">
         <f>SUM(C24:C51)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="50"/>
+      <c r="F53" s="27"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D54" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="45">
+      <c r="D54" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="20">
         <f>SUM(F24:F51)</f>
         <v>0</v>
       </c>
-      <c r="F54" s="45"/>
+      <c r="F54" s="20"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D55" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="45">
+      <c r="D55" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="20">
         <v>0</v>
       </c>
-      <c r="F55" s="45"/>
+      <c r="F55" s="20"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="20">
+        <v>0</v>
+      </c>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="28">
+        <v>0</v>
+      </c>
+      <c r="F57" s="29"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D58" s="30"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="29"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="45">
-        <v>0</v>
-      </c>
-      <c r="F56" s="45"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D57" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="19">
-        <v>0</v>
-      </c>
-      <c r="F57" s="20"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="20"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D59" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="F59" s="52">
+      <c r="F59" s="19">
         <f>SUM(E54:E57)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="D58:F58"/>
     <mergeCell ref="A1:C5"/>
@@ -1495,12 +1482,21 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId1" xr:uid="{0B00D001-4982-4B46-A3ED-83155E086663}"/>
+    <hyperlink ref="F15" r:id="rId1" display="thuongdt1002@gmail.com" xr:uid="{0AEB4868-7FB9-4075-A426-C19367EF0950}"/>
+    <hyperlink ref="F15:F16" r:id="rId2" display="tuandm1905@gmail.com" xr:uid="{EA71A7F8-F4D9-43DA-A5C5-AF5EF837B019}"/>
   </hyperlinks>
   <pageMargins left="1.1811023622047243" right="0.59055118110236215" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>